--- a/ProjectAutomationFiles/projectResuables/ProjectReusables.xlsx
+++ b/ProjectAutomationFiles/projectResuables/ProjectReusables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comman_Reusables" sheetId="3" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1004,12 @@
       </c>
       <c r="D25" s="2"/>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
